--- a/data/trans_bre/P25_7-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_7-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,41</t>
+          <t>10,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,06</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,36</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>155,23%</t>
+          <t>14,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>77,37%</t>
+          <t>16,04</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>151,85%</t>
+          <t>181,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>123,58%</t>
+          <t>67,07%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>137,49%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18,47%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>123,65%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>176,44%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 16,91</t>
+          <t>3,98; 18,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 15,1</t>
+          <t>-1,66; 13,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 19,87</t>
+          <t>1,78; 18,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 24,47</t>
+          <t>-6,38; 12,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,4; 469,2</t>
+          <t>4,77; 24,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 291,16</t>
+          <t>5,85; 25,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 575,71</t>
+          <t>34,19; 627,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,97; 338,32</t>
+          <t>-19,24; 262,98</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7,35; 542,56</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-39,92; 148,85</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26,27; 357,74</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>37,99; 499,22</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,7</t>
+          <t>17,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>174,04%</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>54,91%</t>
+          <t>9,38</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>44,88%</t>
+          <t>168,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>43,69%</t>
+          <t>55,04%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42,72%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11,37%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>43,73%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>57,69%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 25,15</t>
+          <t>8,14; 24,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 13,39</t>
+          <t>-0,64; 12,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 15,53</t>
+          <t>-2,99; 15,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 17,8</t>
+          <t>-11,95; 13,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>71,55; 359,55</t>
+          <t>-2,35; 18,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 171,91</t>
+          <t>-0,14; 17,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 132,0</t>
+          <t>57,55; 341,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 141,32</t>
+          <t>-7,35; 160,76</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-15,11; 124,18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-39,36; 85,38</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-11,07; 139,23</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 152,56</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,61</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,62</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,56</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>13,62</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>8,82</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>66,75%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>75,78%</t>
+          <t>22,63</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>82,21%</t>
+          <t>81,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>45,38%</t>
+          <t>74,39%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>81,02%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>75,97%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>45,35%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>136,5%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 18,39</t>
+          <t>4,39; 18,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 16,76</t>
+          <t>2,98; 16,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 15,82</t>
+          <t>4,1; 15,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 16,55</t>
+          <t>5,14; 21,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 152,97</t>
+          <t>0,13; 17,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,15; 153,93</t>
+          <t>13,23; 30,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,13; 153,13</t>
+          <t>24,82; 178,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 108,73</t>
+          <t>11,84; 156,05</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24,52; 152,87</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17,89; 161,28</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 115,75</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>61,0; 253,92</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,54</t>
+          <t>15,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,02</t>
+          <t>12,71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,0</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>15,19</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>8,8</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>71,06%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>55,85%</t>
+          <t>17,27</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>72,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>58,93%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42,02%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>58,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24,54%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>58,32%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,38; 22,06</t>
+          <t>6,27; 22,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 18,77</t>
+          <t>5,92; 20,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 18,39</t>
+          <t>2,88; 17,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 18,79</t>
+          <t>5,94; 23,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,82; 132,3</t>
+          <t>-1,5; 17,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,64; 103,49</t>
+          <t>8,59; 26,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 85,8</t>
+          <t>22,14; 130,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 64,43</t>
+          <t>23,37; 114,79</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8,41; 78,41</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15,34; 106,56</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 58,56</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>24,65; 108,51</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,88</t>
+          <t>16,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,93</t>
+          <t>13,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,09</t>
+          <t>10,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>20,24</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>13,48</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>61,59%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>48,22%</t>
+          <t>12,7</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>62,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>48,12%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>33,95%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>70,5%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35,31%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32,99%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,39; 25,36</t>
+          <t>7,69; 25,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 21,47</t>
+          <t>5,73; 21,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 19,03</t>
+          <t>3,21; 19,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,5; 22,65</t>
+          <t>10,8; 30,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,49; 116,96</t>
+          <t>4,06; 23,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,34; 93,36</t>
+          <t>2,82; 22,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 69,49</t>
+          <t>25,01; 116,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,84; 71,53</t>
+          <t>18,17; 91,74</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9,28; 70,07</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>29,7; 127,35</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9,75; 76,64</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,25; 68,71</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>24,8</t>
+          <t>24,01</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,41</t>
+          <t>24,4</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,87</t>
+          <t>14,85</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,69</t>
+          <t>14,96</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>87,51%</t>
+          <t>20,67</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>102,47%</t>
+          <t>21,95</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>85,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>73,78%</t>
+          <t>106,95%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>41,79%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>50,02%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>73,71%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>77,47%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,08; 35,94</t>
+          <t>13,6; 33,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,32; 33,05</t>
+          <t>14,14; 32,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 21,87</t>
+          <t>4,14; 24,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,99; 32,47</t>
+          <t>3,37; 27,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>37,36; 161,29</t>
+          <t>7,53; 31,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,97; 186,76</t>
+          <t>9,74; 32,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 69,76</t>
+          <t>40,0; 156,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,81; 143,89</t>
+          <t>48,97; 192,44</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>9,07; 83,16</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>8,8; 113,95</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>23,05; 137,71</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>25,7; 136,54</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,53</t>
+          <t>16,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,82</t>
+          <t>13,02</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,21</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,15</t>
+          <t>12,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>13,14</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>73,9%</t>
+          <t>17,94</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>52,4%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>51,78%</t>
+          <t>74,85%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>53,94%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>53,75%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>51,77%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>78,16%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,24; 20,23</t>
+          <t>12,99; 19,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,69; 16,18</t>
+          <t>9,84; 16,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,68; 14,83</t>
+          <t>7,71; 14,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,05; 17,48</t>
+          <t>8,12; 17,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>59,89; 126,83</t>
+          <t>8,94; 17,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>51,11; 103,09</t>
+          <t>13,41; 22,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,76; 75,36</t>
+          <t>66,27; 126,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,61; 75,07</t>
+          <t>50,74; 100,77</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>32,75; 75,0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>31,29; 83,15</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>31,55; 74,07</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>53,19; 106,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
